--- a/medicine/Pharmacie/Progestatif/Progestatif.xlsx
+++ b/medicine/Pharmacie/Progestatif/Progestatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un progestatif est une  hormone stéroïdienne d'action similaire à la progestérone, le seul progestatif naturel.
 Pour être considérée comme progestative (progestogène), une molécule doit avoir les effets suivants en expérimentation chez un animal de laboratoire :
@@ -514,7 +526,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont classés selon leur formule de structure en progestatifs C19, dérivés de la testostérone, et C21, dérivés de la progestérone.
 </t>
@@ -545,7 +559,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les progestatifs ont des propriétés antiestrogènes et antigonadotropiques (inhibition de la production d'hormones stéroïdiennes sexuelles dans les gonades).
 Les progestatifs diffèrent entre eux dans leur puissance (affinité pour les récepteurs de la progestérone) et leurs effets secondaires. Ces derniers peuvent être androgènes (la médroxyprogestérone et la plupart des progestatifs C19), antiandrogènes (acétate de cyprotérone), œstrogènes, glucocorticoïdes (certains progestatifs C21) ou anti-minéralocorticoïdes (progestérone).
@@ -577,7 +593,9 @@
           <t>Différents usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ils sont toujours présents dans les contraceptifs hormonaux, seuls ou en association avec un œstrogène qui est toujours l'éthinylestradiol.
 Progestatif seul :
@@ -615,7 +633,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cet article est partiellement ou en totalité issu de l'article intitulé « Progestagène » (voir la liste des auteurs).</t>
         </is>
